--- a/硬布线控制器状态转换逻辑自动生成(2019-10-29).xlsx
+++ b/硬布线控制器状态转换逻辑自动生成(2019-10-29).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiger\Desktop\cpu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miles/Desktop/Computer-Organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B1E12E-EC27-495D-8CFA-00A08CB7BC73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54CC62D-EDC9-2041-B656-003884A167B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="状态转换表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">表达式自动生成!$A$1:$Q$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">状态转换表!$O$2:$R$22</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -113,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,7 +693,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,13 +718,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -723,9 +733,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -738,9 +745,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -840,7 +844,7 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -858,10 +862,16 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -893,12 +903,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1298,1403 +1302,1476 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="3.625" style="8" customWidth="1"/>
-    <col min="5" max="6" width="7.625" style="9" customWidth="1"/>
-    <col min="7" max="12" width="6.625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="6.625" style="9" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="7.875" style="9" customWidth="1"/>
-    <col min="15" max="17" width="3.625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="3.625" style="9" customWidth="1"/>
+    <col min="1" max="4" width="3.6640625" style="8" customWidth="1"/>
+    <col min="5" max="6" width="7.6640625" style="8" customWidth="1"/>
+    <col min="7" max="12" width="6.6640625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="8" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.83203125" style="8" customWidth="1"/>
+    <col min="15" max="18" width="3.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="64" t="s">
+    <row r="1" spans="1:18" ht="27" customHeight="1">
+      <c r="A1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="66"/>
-    </row>
-    <row r="2" spans="1:18" ht="27" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="65"/>
+    </row>
+    <row r="2" spans="1:18" ht="30">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="52" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="53" t="s">
+      <c r="O2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="53" t="s">
+      <c r="P2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="58" t="s">
+      <c r="R2" s="55" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
+    <row r="3" spans="1:18" ht="17">
+      <c r="A3" s="13">
         <f t="shared" ref="A3:A17" si="0">IF(ISNUMBER($E3),IF(MOD($E3,16)/8&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <f t="shared" ref="B3:B17" si="1">IF(ISNUMBER($E3),IF(MOD($E3,8)/4&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <f t="shared" ref="C3:C17" si="2">IF(ISNUMBER($E3),IF(MOD($E3,4)/2&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <f t="shared" ref="D3:D17" si="3">IF(ISNUMBER($E3),MOD($E3,2),"")</f>
         <v>0</v>
       </c>
-      <c r="E3" s="16">
-        <v>0</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="54">
-        <v>1</v>
-      </c>
-      <c r="O3" s="14">
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="51">
+        <v>1</v>
+      </c>
+      <c r="O3" s="13">
         <f>IF(ISNUMBER($N3),IF(MOD($N3,16)/8&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="13">
         <f>IF(ISNUMBER($N3),IF(MOD($N3,8)/4&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3" s="13">
         <f>IF(ISNUMBER($N3),IF(MOD($N3,4)/2&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="R3" s="15">
+      <c r="R3" s="13">
         <f>IF(ISNUMBER($N3),MOD($N3,2),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
+    <row r="4" spans="1:18" ht="17">
+      <c r="A4" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E4" s="21">
-        <v>1</v>
-      </c>
-      <c r="F4" s="22">
-        <v>1</v>
-      </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="55">
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="52">
         <v>7</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="17">
         <f t="shared" ref="O4:O31" si="4">IF(ISNUMBER($N4),IF(MOD($N4,16)/8&gt;=1,1,0),"")</f>
         <v>0</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="17">
         <f t="shared" ref="P4:P31" si="5">IF(ISNUMBER($N4),IF(MOD($N4,8)/4&gt;=1,1,0),"")</f>
         <v>1</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="17">
         <f t="shared" ref="Q4:Q31" si="6">IF(ISNUMBER($N4),IF(MOD($N4,4)/2&gt;=1,1,0),"")</f>
         <v>1</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="17">
         <f t="shared" ref="R4:R31" si="7">IF(ISNUMBER($N4),MOD($N4,2),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
+    <row r="5" spans="1:18" ht="17">
+      <c r="A5" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E5" s="16">
-        <v>1</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28">
-        <v>1</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="57">
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25">
+        <v>1</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="54">
         <v>2</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="13">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="str">
+    <row r="6" spans="1:18" ht="17">
+      <c r="A6" s="17">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B6" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="B6" s="17">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C6" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="C6" s="17">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D6" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20">
+        <v>1</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="52">
+        <v>5</v>
+      </c>
+      <c r="O6" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="17">
+      <c r="A7" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B7" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25">
+        <v>1</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="54">
+        <v>9</v>
+      </c>
+      <c r="O7" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P7" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="13">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="17">
+      <c r="A8" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B8" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20">
+        <v>1</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="52">
+        <v>10</v>
+      </c>
+      <c r="O8" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P8" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="17">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R8" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="17">
+      <c r="A9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B9" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25">
+        <v>1</v>
+      </c>
+      <c r="L9" s="25"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="54">
+        <v>13</v>
+      </c>
+      <c r="O9" s="13">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P6" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="P9" s="13">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q6" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="13">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R6" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="R9" s="13">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="17">
+      <c r="A10" s="17">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B7" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="B10" s="17">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C7" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="C10" s="17">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D7" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20">
+        <v>1</v>
+      </c>
+      <c r="M10" s="23"/>
+      <c r="N10" s="52">
+        <v>11</v>
+      </c>
+      <c r="O10" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P10" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="17">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R10" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="17">
+      <c r="A11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B11" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C11" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="13">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14">
+        <v>7</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54">
+        <v>8</v>
+      </c>
+      <c r="O11" s="13">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P7" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="P11" s="13">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q7" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R7" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="R11" s="13">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="17">
+      <c r="A12" s="17">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B8" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="B12" s="17">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C8" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="C12" s="17">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D8" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="D12" s="17">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18">
+        <v>8</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="52">
+        <v>0</v>
+      </c>
+      <c r="O12" s="17">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P8" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="P12" s="17">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q8" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="17">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R8" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="R12" s="17">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="17">
+      <c r="A13" s="13">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B9" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="B13" s="13">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C9" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D9" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>2</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="54">
+        <v>3</v>
+      </c>
+      <c r="O13" s="13">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P9" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="P13" s="13">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q9" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="13">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R9" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="R13" s="13">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="17">
+      <c r="A14" s="17">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B10" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="B14" s="17">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C10" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="C14" s="17">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D10" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18">
+        <v>3</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="52">
+        <v>4</v>
+      </c>
+      <c r="O14" s="17">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P10" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="P14" s="17">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q10" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="17">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R10" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="R14" s="17">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="17">
+      <c r="A15" s="13">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B11" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="B15" s="13">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C11" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D11" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
+        <v>4</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="54">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P11" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q11" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R11" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="17">
+      <c r="A16" s="17">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B12" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="B16" s="17">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C12" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="C16" s="17">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D12" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="D16" s="17">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18">
+        <v>5</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="52">
+        <v>6</v>
+      </c>
+      <c r="O16" s="17">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P12" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="P16" s="17">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q12" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="17">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R12" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="R16" s="17">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="17">
+      <c r="A17" s="13">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B13" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="B17" s="13">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C13" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D13" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
+        <v>6</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54">
+        <v>0</v>
+      </c>
+      <c r="O17" s="13">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P13" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="P17" s="13">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q13" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="13">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R13" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="R17" s="13">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B14" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C14" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D14" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="19" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="17">
+      <c r="A18" s="17">
+        <f t="shared" ref="A18:A31" si="8">IF(ISNUMBER($E18),IF(MOD($E18,16)/8&gt;=1,1,0),"")</f>
+        <v>1</v>
+      </c>
+      <c r="B18" s="17">
+        <f t="shared" ref="B18:B31" si="9">IF(ISNUMBER($E18),IF(MOD($E18,8)/4&gt;=1,1,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="17">
+        <f t="shared" ref="C18:C31" si="10">IF(ISNUMBER($E18),IF(MOD($E18,4)/2&gt;=1,1,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="17">
+        <f t="shared" ref="D18:D31" si="11">IF(ISNUMBER($E18),MOD($E18,2),"")</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="18">
+        <v>9</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="52">
+        <v>0</v>
+      </c>
+      <c r="O18" s="17">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P14" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="P18" s="17">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q14" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="17">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R14" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="R18" s="17">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B15" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C15" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D15" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="14" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="17">
+      <c r="A19" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B19" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="14">
+        <v>10</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="54">
+        <v>0</v>
+      </c>
+      <c r="O19" s="13">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P15" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="P19" s="13">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q15" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="13">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R15" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="R19" s="13">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B16" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C16" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D16" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="19" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="17">
+      <c r="A20" s="17">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B20" s="17">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C20" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="17">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="18">
+        <v>13</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="52">
+        <v>13</v>
+      </c>
+      <c r="O20" s="17">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P16" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="P20" s="17">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q16" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="17">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R16" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="R20" s="17">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B17" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C17" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D17" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="14" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="17">
+      <c r="A21" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B21" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D21" s="13">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="14">
+        <v>11</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="54">
+        <v>12</v>
+      </c>
+      <c r="O21" s="13">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P17" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="P21" s="13">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q17" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="13">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R17" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="R21" s="13">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="str">
-        <f t="shared" ref="A18:A31" si="8">IF(ISNUMBER($E18),IF(MOD($E18,16)/8&gt;=1,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="B18" s="19" t="str">
-        <f t="shared" ref="B18:B31" si="9">IF(ISNUMBER($E18),IF(MOD($E18,8)/4&gt;=1,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="C18" s="19" t="str">
-        <f t="shared" ref="C18:C31" si="10">IF(ISNUMBER($E18),IF(MOD($E18,4)/2&gt;=1,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="D18" s="20" t="str">
-        <f t="shared" ref="D18:D31" si="11">IF(ISNUMBER($E18),MOD($E18,2),"")</f>
-        <v/>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="19" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="17">
+      <c r="A22" s="17">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B22" s="17">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C22" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="18">
+        <v>12</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="52">
+        <v>0</v>
+      </c>
+      <c r="O22" s="17">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P18" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="P22" s="17">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q18" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="17">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R18" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="R22" s="17">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="17">
+      <c r="A23" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B19" s="14" t="str">
+      <c r="B23" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="C19" s="14" t="str">
+      <c r="C23" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D19" s="15" t="str">
+      <c r="D23" s="13" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="14" t="str">
+      <c r="E23" s="14"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P19" s="14" t="str">
+      <c r="P23" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q19" s="14" t="str">
+      <c r="Q23" s="13" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R19" s="15" t="str">
+      <c r="R23" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="str">
+    <row r="24" spans="1:18" ht="17">
+      <c r="A24" s="17" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B20" s="19" t="str">
+      <c r="B24" s="17" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="C20" s="19" t="str">
+      <c r="C24" s="17" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D20" s="20" t="str">
+      <c r="D24" s="17" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="19" t="str">
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="17" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P20" s="19" t="str">
+      <c r="P24" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q20" s="19" t="str">
+      <c r="Q24" s="17" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R20" s="20" t="str">
+      <c r="R24" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="str">
+    <row r="25" spans="1:18" ht="17">
+      <c r="A25" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B21" s="14" t="str">
+      <c r="B25" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="C21" s="14" t="str">
+      <c r="C25" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D21" s="15" t="str">
+      <c r="D25" s="13" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="14" t="str">
+      <c r="E25" s="14"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P21" s="14" t="str">
+      <c r="P25" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q21" s="14" t="str">
+      <c r="Q25" s="13" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R21" s="15" t="str">
+      <c r="R25" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="str">
+    <row r="26" spans="1:18" ht="17">
+      <c r="A26" s="17" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B22" s="19" t="str">
+      <c r="B26" s="17" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="C22" s="19" t="str">
+      <c r="C26" s="17" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D22" s="20" t="str">
+      <c r="D26" s="17" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="19" t="str">
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="17" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P22" s="19" t="str">
+      <c r="P26" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q22" s="19" t="str">
+      <c r="Q26" s="17" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R22" s="20" t="str">
+      <c r="R26" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="str">
+    <row r="27" spans="1:18" ht="17">
+      <c r="A27" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B23" s="14" t="str">
+      <c r="B27" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="C23" s="14" t="str">
+      <c r="C27" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D23" s="15" t="str">
+      <c r="D27" s="13" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="14" t="str">
+      <c r="E27" s="14"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P23" s="14" t="str">
+      <c r="P27" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q23" s="14" t="str">
+      <c r="Q27" s="13" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R23" s="15" t="str">
+      <c r="R27" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="str">
+    <row r="28" spans="1:18" ht="17">
+      <c r="A28" s="17" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B24" s="19" t="str">
+      <c r="B28" s="17" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="C24" s="19" t="str">
+      <c r="C28" s="17" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D24" s="20" t="str">
+      <c r="D28" s="17" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="19" t="str">
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="17" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P24" s="19" t="str">
+      <c r="P28" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q24" s="19" t="str">
+      <c r="Q28" s="17" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R24" s="20" t="str">
+      <c r="R28" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="str">
+    <row r="29" spans="1:18" ht="17">
+      <c r="A29" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B25" s="14" t="str">
+      <c r="B29" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="C25" s="14" t="str">
+      <c r="C29" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D25" s="15" t="str">
+      <c r="D29" s="13" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="14" t="str">
+      <c r="E29" s="14"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P25" s="14" t="str">
+      <c r="P29" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q25" s="14" t="str">
+      <c r="Q29" s="13" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R25" s="15" t="str">
+      <c r="R29" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="str">
+    <row r="30" spans="1:18" ht="17">
+      <c r="A30" s="17" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B26" s="19" t="str">
+      <c r="B30" s="17" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="C26" s="19" t="str">
+      <c r="C30" s="17" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D26" s="20" t="str">
+      <c r="D30" s="17" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="19" t="str">
+      <c r="E30" s="18"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="17" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P26" s="19" t="str">
+      <c r="P30" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q26" s="19" t="str">
+      <c r="Q30" s="17" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R26" s="20" t="str">
+      <c r="R30" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="str">
+    <row r="31" spans="1:18" ht="17">
+      <c r="A31" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B27" s="14" t="str">
+      <c r="B31" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="C27" s="14" t="str">
+      <c r="C31" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D27" s="15" t="str">
+      <c r="D31" s="13" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="14" t="str">
+      <c r="E31" s="14"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P27" s="14" t="str">
+      <c r="P31" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q27" s="14" t="str">
+      <c r="Q31" s="13" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R27" s="15" t="str">
+      <c r="R31" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B28" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="C28" s="19" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D28" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P28" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q28" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R28" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B29" s="14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="C29" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D29" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P29" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q29" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R29" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B30" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="C30" s="19" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D30" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P30" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q30" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R30" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="B31" s="14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="C31" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D31" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P31" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q31" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R31" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="F32" s="67" t="s">
+    <row r="32" spans="1:18" ht="17">
+      <c r="F32" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -2746,136 +2823,136 @@
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="11" width="4.625" customWidth="1"/>
-    <col min="12" max="12" width="4.625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" style="30" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="30" customWidth="1"/>
-    <col min="15" max="15" width="9.5" style="30" customWidth="1"/>
-    <col min="16" max="16" width="10.125" style="30" customWidth="1"/>
-    <col min="17" max="17" width="11.125" style="30" customWidth="1"/>
+    <col min="1" max="11" width="4.6640625" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" style="27" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="27" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="27" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" style="27" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="str">
+    <row r="1" spans="1:17" s="26" customFormat="1" ht="16">
+      <c r="A1" s="28" t="str">
         <f>状态转换表!A2</f>
         <v>S3</v>
       </c>
-      <c r="B1" s="31" t="str">
+      <c r="B1" s="28" t="str">
         <f>状态转换表!B2</f>
         <v>S2</v>
       </c>
-      <c r="C1" s="31" t="str">
+      <c r="C1" s="28" t="str">
         <f>状态转换表!C2</f>
         <v>S1</v>
       </c>
-      <c r="D1" s="32" t="str">
+      <c r="D1" s="29" t="str">
         <f>状态转换表!D2</f>
         <v>S0</v>
       </c>
-      <c r="E1" s="33" t="str">
+      <c r="E1" s="30" t="str">
         <f>状态转换表!F2</f>
         <v>R_Type</v>
       </c>
-      <c r="F1" s="31" t="str">
+      <c r="F1" s="28" t="str">
         <f>状态转换表!G2</f>
         <v>LW</v>
       </c>
-      <c r="G1" s="31" t="str">
+      <c r="G1" s="28" t="str">
         <f>状态转换表!H2</f>
         <v>SW</v>
       </c>
-      <c r="H1" s="31" t="str">
+      <c r="H1" s="28" t="str">
         <f>状态转换表!I2</f>
         <v>BEQ</v>
       </c>
-      <c r="I1" s="31" t="str">
+      <c r="I1" s="28" t="str">
         <f>状态转换表!J2</f>
         <v>BNE</v>
       </c>
-      <c r="J1" s="31" t="str">
+      <c r="J1" s="28" t="str">
         <f>状态转换表!K2</f>
         <v>SYSCALL</v>
       </c>
-      <c r="K1" s="31" t="str">
+      <c r="K1" s="28" t="str">
         <f>状态转换表!L2</f>
         <v>ADDI</v>
       </c>
-      <c r="L1" s="44">
+      <c r="L1" s="41">
         <f>状态转换表!M2</f>
         <v>0</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="46" t="str">
+      <c r="N1" s="43" t="str">
         <f>状态转换表!O2</f>
         <v>N3</v>
       </c>
-      <c r="O1" s="46" t="str">
+      <c r="O1" s="43" t="str">
         <f>状态转换表!P2</f>
         <v>N2</v>
       </c>
-      <c r="P1" s="46" t="str">
+      <c r="P1" s="43" t="str">
         <f>状态转换表!Q2</f>
         <v>N1</v>
       </c>
-      <c r="Q1" s="46" t="str">
+      <c r="Q1" s="43" t="str">
         <f>状态转换表!R2</f>
         <v>N0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="str">
+    <row r="2" spans="1:17">
+      <c r="A2" s="31" t="str">
         <f>IF(状态转换表!A3=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A3=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v>~S3&amp;</v>
       </c>
-      <c r="B2" s="34" t="str">
+      <c r="B2" s="31" t="str">
         <f>IF(状态转换表!B3=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B3=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v>~S2&amp;</v>
       </c>
-      <c r="C2" s="34" t="str">
+      <c r="C2" s="31" t="str">
         <f>IF(状态转换表!C3=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C3=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v>~S1&amp;</v>
       </c>
-      <c r="D2" s="35" t="str">
+      <c r="D2" s="32" t="str">
         <f>IF(状态转换表!D3=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D3=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v>~S0&amp;</v>
       </c>
-      <c r="E2" s="36" t="str">
+      <c r="E2" s="33" t="str">
         <f>IF(状态转换表!F3&lt;&gt;"",IF(状态转换表!F3=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F3=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F2" s="37" t="str">
+      <c r="F2" s="34" t="str">
         <f>IF(状态转换表!G3&lt;&gt;"",IF(状态转换表!G3=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G3=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G2" s="37" t="str">
+      <c r="G2" s="34" t="str">
         <f>IF(状态转换表!H3&lt;&gt;"",IF(状态转换表!H3=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H3=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H2" s="37" t="str">
+      <c r="H2" s="34" t="str">
         <f>IF(状态转换表!I3&lt;&gt;"",IF(状态转换表!I3=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I3=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I2" s="37" t="str">
+      <c r="I2" s="34" t="str">
         <f>IF(状态转换表!J3&lt;&gt;"",IF(状态转换表!J3=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J3=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J2" s="37" t="str">
+      <c r="J2" s="34" t="str">
         <f>IF(状态转换表!K3&lt;&gt;"",IF(状态转换表!K3=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K3=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K2" s="37" t="str">
+      <c r="K2" s="34" t="str">
         <f>IF(状态转换表!L3&lt;&gt;"",IF(状态转换表!L3=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L3=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L2" s="47" t="str">
+      <c r="L2" s="44" t="str">
         <f>IF(状态转换表!M3&lt;&gt;"",IF(状态转换表!M3=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M3=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M2" s="48" t="str">
+      <c r="M2" s="45" t="str">
         <f>IF(LEN(CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2))=0,"",LEFT(CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2),LEN(CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2))-1))</f>
         <v>~S3&amp;~S2&amp;~S1&amp;~S0</v>
       </c>
@@ -2896,56 +2973,56 @@
         <v>~S3&amp;~S2&amp;~S1&amp;~S0+</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="str">
+    <row r="3" spans="1:17">
+      <c r="A3" s="31" t="str">
         <f>IF(状态转换表!A4=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A4=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v>~S3&amp;</v>
       </c>
-      <c r="B3" s="38" t="str">
+      <c r="B3" s="35" t="str">
         <f>IF(状态转换表!B4=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B4=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v>~S2&amp;</v>
       </c>
-      <c r="C3" s="38" t="str">
+      <c r="C3" s="35" t="str">
         <f>IF(状态转换表!C4=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C4=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v>~S1&amp;</v>
       </c>
-      <c r="D3" s="39" t="str">
+      <c r="D3" s="36" t="str">
         <f>IF(状态转换表!D4=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D4=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v>S0&amp;</v>
       </c>
-      <c r="E3" s="40" t="str">
+      <c r="E3" s="37" t="str">
         <f>IF(状态转换表!F4&lt;&gt;"",IF(状态转换表!F4=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F4=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v>R_Type&amp;</v>
       </c>
-      <c r="F3" s="38" t="str">
+      <c r="F3" s="35" t="str">
         <f>IF(状态转换表!G4&lt;&gt;"",IF(状态转换表!G4=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G4=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G3" s="38" t="str">
+      <c r="G3" s="35" t="str">
         <f>IF(状态转换表!H4&lt;&gt;"",IF(状态转换表!H4=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H4=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H3" s="38" t="str">
+      <c r="H3" s="35" t="str">
         <f>IF(状态转换表!I4&lt;&gt;"",IF(状态转换表!I4=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I4=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I3" s="38" t="str">
+      <c r="I3" s="35" t="str">
         <f>IF(状态转换表!J4&lt;&gt;"",IF(状态转换表!J4=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J4=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J3" s="38" t="str">
+      <c r="J3" s="35" t="str">
         <f>IF(状态转换表!K4&lt;&gt;"",IF(状态转换表!K4=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K4=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K3" s="38" t="str">
+      <c r="K3" s="35" t="str">
         <f>IF(状态转换表!L4&lt;&gt;"",IF(状态转换表!L4=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L4=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L3" s="49" t="str">
+      <c r="L3" s="46" t="str">
         <f>IF(状态转换表!M4&lt;&gt;"",IF(状态转换表!M4=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M4=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M3" s="48" t="str">
+      <c r="M3" s="45" t="str">
         <f t="shared" ref="M3:M30" si="0">IF(LEN(CONCATENATE(A3,B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3))=0,"",LEFT(CONCATENATE(A3,B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3),LEN(CONCATENATE(A3,B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3))-1))</f>
         <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type</v>
       </c>
@@ -2966,56 +3043,56 @@
         <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="str">
+    <row r="4" spans="1:17">
+      <c r="A4" s="31" t="str">
         <f>IF(状态转换表!A5=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A5=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v>~S3&amp;</v>
       </c>
-      <c r="B4" s="38" t="str">
+      <c r="B4" s="35" t="str">
         <f>IF(状态转换表!B5=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B5=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v>~S2&amp;</v>
       </c>
-      <c r="C4" s="38" t="str">
+      <c r="C4" s="35" t="str">
         <f>IF(状态转换表!C5=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C5=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v>~S1&amp;</v>
       </c>
-      <c r="D4" s="39" t="str">
+      <c r="D4" s="36" t="str">
         <f>IF(状态转换表!D5=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D5=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v>S0&amp;</v>
       </c>
-      <c r="E4" s="40" t="str">
+      <c r="E4" s="37" t="str">
         <f>IF(状态转换表!F5&lt;&gt;"",IF(状态转换表!F5=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F5=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F4" s="38" t="str">
+      <c r="F4" s="35" t="str">
         <f>IF(状态转换表!G5&lt;&gt;"",IF(状态转换表!G5=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G5=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v>LW&amp;</v>
       </c>
-      <c r="G4" s="38" t="str">
+      <c r="G4" s="35" t="str">
         <f>IF(状态转换表!H5&lt;&gt;"",IF(状态转换表!H5=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H5=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H4" s="38" t="str">
+      <c r="H4" s="35" t="str">
         <f>IF(状态转换表!I5&lt;&gt;"",IF(状态转换表!I5=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I5=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I4" s="38" t="str">
+      <c r="I4" s="35" t="str">
         <f>IF(状态转换表!J5&lt;&gt;"",IF(状态转换表!J5=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J5=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J4" s="38" t="str">
+      <c r="J4" s="35" t="str">
         <f>IF(状态转换表!K5&lt;&gt;"",IF(状态转换表!K5=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K5=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K4" s="38" t="str">
+      <c r="K4" s="35" t="str">
         <f>IF(状态转换表!L5&lt;&gt;"",IF(状态转换表!L5=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L5=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L4" s="49" t="str">
+      <c r="L4" s="46" t="str">
         <f>IF(状态转换表!M5&lt;&gt;"",IF(状态转换表!M5=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M5=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M4" s="48" t="str">
+      <c r="M4" s="45" t="str">
         <f t="shared" si="0"/>
         <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;LW</v>
       </c>
@@ -3036,58 +3113,58 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="str">
+    <row r="5" spans="1:17">
+      <c r="A5" s="31" t="str">
         <f>IF(状态转换表!A6=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A6=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="B5" s="38" t="str">
+        <v>~S3&amp;</v>
+      </c>
+      <c r="B5" s="35" t="str">
         <f>IF(状态转换表!B6=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B6=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="C5" s="38" t="str">
+        <v>~S2&amp;</v>
+      </c>
+      <c r="C5" s="35" t="str">
         <f>IF(状态转换表!C6=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C6=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="D5" s="39" t="str">
+        <v>~S1&amp;</v>
+      </c>
+      <c r="D5" s="36" t="str">
         <f>IF(状态转换表!D6=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D6=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="E5" s="40" t="str">
+        <v>S0&amp;</v>
+      </c>
+      <c r="E5" s="37" t="str">
         <f>IF(状态转换表!F6&lt;&gt;"",IF(状态转换表!F6=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F6=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F5" s="38" t="str">
+      <c r="F5" s="35" t="str">
         <f>IF(状态转换表!G6&lt;&gt;"",IF(状态转换表!G6=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G6=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G5" s="38" t="str">
+      <c r="G5" s="35" t="str">
         <f>IF(状态转换表!H6&lt;&gt;"",IF(状态转换表!H6=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H6=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
-        <v/>
-      </c>
-      <c r="H5" s="38" t="str">
+        <v>SW&amp;</v>
+      </c>
+      <c r="H5" s="35" t="str">
         <f>IF(状态转换表!I6&lt;&gt;"",IF(状态转换表!I6=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I6=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I5" s="38" t="str">
+      <c r="I5" s="35" t="str">
         <f>IF(状态转换表!J6&lt;&gt;"",IF(状态转换表!J6=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J6=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J5" s="38" t="str">
+      <c r="J5" s="35" t="str">
         <f>IF(状态转换表!K6&lt;&gt;"",IF(状态转换表!K6=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K6=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K5" s="38" t="str">
+      <c r="K5" s="35" t="str">
         <f>IF(状态转换表!L6&lt;&gt;"",IF(状态转换表!L6=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L6=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L5" s="49" t="str">
+      <c r="L5" s="46" t="str">
         <f>IF(状态转换表!M6&lt;&gt;"",IF(状态转换表!M6=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M6=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M5" s="48" t="str">
+      <c r="M5" s="45" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;SW</v>
       </c>
       <c r="N5" s="2" t="str">
         <f>IF(状态转换表!O6=1,$M5&amp;"+","")</f>
@@ -3095,7 +3172,7 @@
       </c>
       <c r="O5" s="2" t="str">
         <f>IF(状态转换表!P6=1,$M5&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;SW+</v>
       </c>
       <c r="P5" s="2" t="str">
         <f>IF(状态转换表!Q6=1,$M5&amp;"+","")</f>
@@ -3103,65 +3180,65 @@
       </c>
       <c r="Q5" s="2" t="str">
         <f>IF(状态转换表!R6=1,$M5&amp;"+","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="str">
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;SW+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="31" t="str">
         <f>IF(状态转换表!A7=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A7=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="B6" s="38" t="str">
+        <v>~S3&amp;</v>
+      </c>
+      <c r="B6" s="35" t="str">
         <f>IF(状态转换表!B7=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B7=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="C6" s="38" t="str">
+        <v>~S2&amp;</v>
+      </c>
+      <c r="C6" s="35" t="str">
         <f>IF(状态转换表!C7=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C7=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="D6" s="39" t="str">
+        <v>~S1&amp;</v>
+      </c>
+      <c r="D6" s="36" t="str">
         <f>IF(状态转换表!D7=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D7=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="E6" s="40" t="str">
+        <v>S0&amp;</v>
+      </c>
+      <c r="E6" s="37" t="str">
         <f>IF(状态转换表!F7&lt;&gt;"",IF(状态转换表!F7=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F7=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F6" s="38" t="str">
+      <c r="F6" s="35" t="str">
         <f>IF(状态转换表!G7&lt;&gt;"",IF(状态转换表!G7=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G7=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G6" s="38" t="str">
+      <c r="G6" s="35" t="str">
         <f>IF(状态转换表!H7&lt;&gt;"",IF(状态转换表!H7=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H7=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H6" s="38" t="str">
+      <c r="H6" s="35" t="str">
         <f>IF(状态转换表!I7&lt;&gt;"",IF(状态转换表!I7=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I7=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
-        <v/>
-      </c>
-      <c r="I6" s="38" t="str">
+        <v>BEQ&amp;</v>
+      </c>
+      <c r="I6" s="35" t="str">
         <f>IF(状态转换表!J7&lt;&gt;"",IF(状态转换表!J7=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J7=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J6" s="38" t="str">
+      <c r="J6" s="35" t="str">
         <f>IF(状态转换表!K7&lt;&gt;"",IF(状态转换表!K7=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K7=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K6" s="38" t="str">
+      <c r="K6" s="35" t="str">
         <f>IF(状态转换表!L7&lt;&gt;"",IF(状态转换表!L7=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L7=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L6" s="49" t="str">
+      <c r="L6" s="46" t="str">
         <f>IF(状态转换表!M7&lt;&gt;"",IF(状态转换表!M7=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M7=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M6" s="48" t="str">
+      <c r="M6" s="45" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;BEQ</v>
       </c>
       <c r="N6" s="2" t="str">
         <f>IF(状态转换表!O7=1,$M6&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;BEQ+</v>
       </c>
       <c r="O6" s="2" t="str">
         <f>IF(状态转换表!P7=1,$M6&amp;"+","")</f>
@@ -3173,65 +3250,65 @@
       </c>
       <c r="Q6" s="2" t="str">
         <f>IF(状态转换表!R7=1,$M6&amp;"+","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="str">
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;BEQ+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="31" t="str">
         <f>IF(状态转换表!A8=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A8=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="B7" s="38" t="str">
+        <v>~S3&amp;</v>
+      </c>
+      <c r="B7" s="35" t="str">
         <f>IF(状态转换表!B8=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B8=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="C7" s="38" t="str">
+        <v>~S2&amp;</v>
+      </c>
+      <c r="C7" s="35" t="str">
         <f>IF(状态转换表!C8=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C8=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="D7" s="39" t="str">
+        <v>~S1&amp;</v>
+      </c>
+      <c r="D7" s="36" t="str">
         <f>IF(状态转换表!D8=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D8=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="E7" s="40" t="str">
+        <v>S0&amp;</v>
+      </c>
+      <c r="E7" s="37" t="str">
         <f>IF(状态转换表!F8&lt;&gt;"",IF(状态转换表!F8=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F8=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F7" s="38" t="str">
+      <c r="F7" s="35" t="str">
         <f>IF(状态转换表!G8&lt;&gt;"",IF(状态转换表!G8=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G8=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G7" s="38" t="str">
+      <c r="G7" s="35" t="str">
         <f>IF(状态转换表!H8&lt;&gt;"",IF(状态转换表!H8=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H8=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H7" s="38" t="str">
+      <c r="H7" s="35" t="str">
         <f>IF(状态转换表!I8&lt;&gt;"",IF(状态转换表!I8=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I8=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I7" s="38" t="str">
+      <c r="I7" s="35" t="str">
         <f>IF(状态转换表!J8&lt;&gt;"",IF(状态转换表!J8=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J8=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
-        <v/>
-      </c>
-      <c r="J7" s="38" t="str">
+        <v>BNE&amp;</v>
+      </c>
+      <c r="J7" s="35" t="str">
         <f>IF(状态转换表!K8&lt;&gt;"",IF(状态转换表!K8=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K8=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K7" s="38" t="str">
+      <c r="K7" s="35" t="str">
         <f>IF(状态转换表!L8&lt;&gt;"",IF(状态转换表!L8=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L8=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L7" s="49" t="str">
+      <c r="L7" s="46" t="str">
         <f>IF(状态转换表!M8&lt;&gt;"",IF(状态转换表!M8=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M8=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M7" s="48" t="str">
+      <c r="M7" s="45" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;BNE</v>
       </c>
       <c r="N7" s="2" t="str">
         <f>IF(状态转换表!O8=1,$M7&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;BNE+</v>
       </c>
       <c r="O7" s="2" t="str">
         <f>IF(状态转换表!P8=1,$M7&amp;"+","")</f>
@@ -3239,73 +3316,73 @@
       </c>
       <c r="P7" s="2" t="str">
         <f>IF(状态转换表!Q8=1,$M7&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;BNE+</v>
       </c>
       <c r="Q7" s="2" t="str">
         <f>IF(状态转换表!R8=1,$M7&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="str">
+    <row r="8" spans="1:17">
+      <c r="A8" s="31" t="str">
         <f>IF(状态转换表!A9=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A9=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="B8" s="38" t="str">
+        <v>~S3&amp;</v>
+      </c>
+      <c r="B8" s="35" t="str">
         <f>IF(状态转换表!B9=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B9=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="C8" s="38" t="str">
+        <v>~S2&amp;</v>
+      </c>
+      <c r="C8" s="35" t="str">
         <f>IF(状态转换表!C9=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C9=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="D8" s="39" t="str">
+        <v>~S1&amp;</v>
+      </c>
+      <c r="D8" s="36" t="str">
         <f>IF(状态转换表!D9=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D9=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="E8" s="40" t="str">
+        <v>S0&amp;</v>
+      </c>
+      <c r="E8" s="37" t="str">
         <f>IF(状态转换表!F9&lt;&gt;"",IF(状态转换表!F9=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F9=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F8" s="38" t="str">
+      <c r="F8" s="35" t="str">
         <f>IF(状态转换表!G9&lt;&gt;"",IF(状态转换表!G9=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G9=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G8" s="38" t="str">
+      <c r="G8" s="35" t="str">
         <f>IF(状态转换表!H9&lt;&gt;"",IF(状态转换表!H9=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H9=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H8" s="38" t="str">
+      <c r="H8" s="35" t="str">
         <f>IF(状态转换表!I9&lt;&gt;"",IF(状态转换表!I9=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I9=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I8" s="38" t="str">
+      <c r="I8" s="35" t="str">
         <f>IF(状态转换表!J9&lt;&gt;"",IF(状态转换表!J9=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J9=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J8" s="38" t="str">
+      <c r="J8" s="35" t="str">
         <f>IF(状态转换表!K9&lt;&gt;"",IF(状态转换表!K9=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K9=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
-        <v/>
-      </c>
-      <c r="K8" s="38" t="str">
+        <v>SYSCALL&amp;</v>
+      </c>
+      <c r="K8" s="35" t="str">
         <f>IF(状态转换表!L9&lt;&gt;"",IF(状态转换表!L9=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L9=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L8" s="49" t="str">
+      <c r="L8" s="46" t="str">
         <f>IF(状态转换表!M9&lt;&gt;"",IF(状态转换表!M9=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M9=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M8" s="48" t="str">
+      <c r="M8" s="45" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL</v>
       </c>
       <c r="N8" s="2" t="str">
         <f>IF(状态转换表!O9=1,$M8&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+</v>
       </c>
       <c r="O8" s="2" t="str">
         <f>IF(状态转换表!P9=1,$M8&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+</v>
       </c>
       <c r="P8" s="2" t="str">
         <f>IF(状态转换表!Q9=1,$M8&amp;"+","")</f>
@@ -3313,65 +3390,65 @@
       </c>
       <c r="Q8" s="2" t="str">
         <f>IF(状态转换表!R9=1,$M8&amp;"+","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="str">
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="31" t="str">
         <f>IF(状态转换表!A10=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A10=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="B9" s="38" t="str">
+        <v>~S3&amp;</v>
+      </c>
+      <c r="B9" s="35" t="str">
         <f>IF(状态转换表!B10=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B10=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="C9" s="38" t="str">
+        <v>~S2&amp;</v>
+      </c>
+      <c r="C9" s="35" t="str">
         <f>IF(状态转换表!C10=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C10=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="D9" s="39" t="str">
+        <v>~S1&amp;</v>
+      </c>
+      <c r="D9" s="36" t="str">
         <f>IF(状态转换表!D10=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D10=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="E9" s="40" t="str">
+        <v>S0&amp;</v>
+      </c>
+      <c r="E9" s="37" t="str">
         <f>IF(状态转换表!F10&lt;&gt;"",IF(状态转换表!F10=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F10=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F9" s="38" t="str">
+      <c r="F9" s="35" t="str">
         <f>IF(状态转换表!G10&lt;&gt;"",IF(状态转换表!G10=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G10=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G9" s="38" t="str">
+      <c r="G9" s="35" t="str">
         <f>IF(状态转换表!H10&lt;&gt;"",IF(状态转换表!H10=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H10=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H9" s="38" t="str">
+      <c r="H9" s="35" t="str">
         <f>IF(状态转换表!I10&lt;&gt;"",IF(状态转换表!I10=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I10=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I9" s="38" t="str">
+      <c r="I9" s="35" t="str">
         <f>IF(状态转换表!J10&lt;&gt;"",IF(状态转换表!J10=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J10=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J9" s="38" t="str">
+      <c r="J9" s="35" t="str">
         <f>IF(状态转换表!K10&lt;&gt;"",IF(状态转换表!K10=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K10=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K9" s="38" t="str">
+      <c r="K9" s="35" t="str">
         <f>IF(状态转换表!L10&lt;&gt;"",IF(状态转换表!L10=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L10=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
-        <v/>
-      </c>
-      <c r="L9" s="49" t="str">
+        <v>ADDI&amp;</v>
+      </c>
+      <c r="L9" s="46" t="str">
         <f>IF(状态转换表!M10&lt;&gt;"",IF(状态转换表!M10=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M10=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M9" s="48" t="str">
+      <c r="M9" s="45" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI</v>
       </c>
       <c r="N9" s="2" t="str">
         <f>IF(状态转换表!O10=1,$M9&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+</v>
       </c>
       <c r="O9" s="2" t="str">
         <f>IF(状态转换表!P10=1,$M9&amp;"+","")</f>
@@ -3379,69 +3456,69 @@
       </c>
       <c r="P9" s="2" t="str">
         <f>IF(状态转换表!Q10=1,$M9&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+</v>
       </c>
       <c r="Q9" s="2" t="str">
         <f>IF(状态转换表!R10=1,$M9&amp;"+","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="str">
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="31" t="str">
         <f>IF(状态转换表!A11=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A11=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="B10" s="38" t="str">
+        <v>~S3&amp;</v>
+      </c>
+      <c r="B10" s="35" t="str">
         <f>IF(状态转换表!B11=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B11=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="C10" s="38" t="str">
+        <v>S2&amp;</v>
+      </c>
+      <c r="C10" s="35" t="str">
         <f>IF(状态转换表!C11=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C11=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="D10" s="39" t="str">
+        <v>S1&amp;</v>
+      </c>
+      <c r="D10" s="36" t="str">
         <f>IF(状态转换表!D11=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D11=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="E10" s="40" t="str">
+        <v>S0&amp;</v>
+      </c>
+      <c r="E10" s="37" t="str">
         <f>IF(状态转换表!F11&lt;&gt;"",IF(状态转换表!F11=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F11=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F10" s="38" t="str">
+      <c r="F10" s="35" t="str">
         <f>IF(状态转换表!G11&lt;&gt;"",IF(状态转换表!G11=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G11=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G10" s="38" t="str">
+      <c r="G10" s="35" t="str">
         <f>IF(状态转换表!H11&lt;&gt;"",IF(状态转换表!H11=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H11=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H10" s="38" t="str">
+      <c r="H10" s="35" t="str">
         <f>IF(状态转换表!I11&lt;&gt;"",IF(状态转换表!I11=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I11=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I10" s="38" t="str">
+      <c r="I10" s="35" t="str">
         <f>IF(状态转换表!J11&lt;&gt;"",IF(状态转换表!J11=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J11=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J10" s="38" t="str">
+      <c r="J10" s="35" t="str">
         <f>IF(状态转换表!K11&lt;&gt;"",IF(状态转换表!K11=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K11=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K10" s="38" t="str">
+      <c r="K10" s="35" t="str">
         <f>IF(状态转换表!L11&lt;&gt;"",IF(状态转换表!L11=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L11=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L10" s="49" t="str">
+      <c r="L10" s="46" t="str">
         <f>IF(状态转换表!M11&lt;&gt;"",IF(状态转换表!M11=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M11=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M10" s="48" t="str">
+      <c r="M10" s="45" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;S2&amp;S1&amp;S0</v>
       </c>
       <c r="N10" s="2" t="str">
         <f>IF(状态转换表!O11=1,$M10&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;S2&amp;S1&amp;S0+</v>
       </c>
       <c r="O10" s="2" t="str">
         <f>IF(状态转换表!P11=1,$M10&amp;"+","")</f>
@@ -3456,58 +3533,58 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="str">
+    <row r="11" spans="1:17">
+      <c r="A11" s="31" t="str">
         <f>IF(状态转换表!A12=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A12=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="B11" s="38" t="str">
+        <v>S3&amp;</v>
+      </c>
+      <c r="B11" s="35" t="str">
         <f>IF(状态转换表!B12=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B12=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="C11" s="38" t="str">
+        <v>~S2&amp;</v>
+      </c>
+      <c r="C11" s="35" t="str">
         <f>IF(状态转换表!C12=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C12=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="D11" s="39" t="str">
+        <v>~S1&amp;</v>
+      </c>
+      <c r="D11" s="36" t="str">
         <f>IF(状态转换表!D12=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D12=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="E11" s="40" t="str">
+        <v>~S0&amp;</v>
+      </c>
+      <c r="E11" s="37" t="str">
         <f>IF(状态转换表!F12&lt;&gt;"",IF(状态转换表!F12=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F12=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F11" s="38" t="str">
+      <c r="F11" s="35" t="str">
         <f>IF(状态转换表!G12&lt;&gt;"",IF(状态转换表!G12=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G12=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G11" s="38" t="str">
+      <c r="G11" s="35" t="str">
         <f>IF(状态转换表!H12&lt;&gt;"",IF(状态转换表!H12=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H12=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H11" s="38" t="str">
+      <c r="H11" s="35" t="str">
         <f>IF(状态转换表!I12&lt;&gt;"",IF(状态转换表!I12=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I12=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I11" s="38" t="str">
+      <c r="I11" s="35" t="str">
         <f>IF(状态转换表!J12&lt;&gt;"",IF(状态转换表!J12=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J12=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J11" s="38" t="str">
+      <c r="J11" s="35" t="str">
         <f>IF(状态转换表!K12&lt;&gt;"",IF(状态转换表!K12=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K12=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K11" s="38" t="str">
+      <c r="K11" s="35" t="str">
         <f>IF(状态转换表!L12&lt;&gt;"",IF(状态转换表!L12=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L12=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L11" s="49" t="str">
+      <c r="L11" s="46" t="str">
         <f>IF(状态转换表!M12&lt;&gt;"",IF(状态转换表!M12=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M12=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M11" s="48" t="str">
+      <c r="M11" s="45" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>S3&amp;~S2&amp;~S1&amp;~S0</v>
       </c>
       <c r="N11" s="2" t="str">
         <f>IF(状态转换表!O12=1,$M11&amp;"+","")</f>
@@ -3526,58 +3603,58 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="str">
+    <row r="12" spans="1:17">
+      <c r="A12" s="31" t="str">
         <f>IF(状态转换表!A13=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A13=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="B12" s="38" t="str">
+        <v>~S3&amp;</v>
+      </c>
+      <c r="B12" s="35" t="str">
         <f>IF(状态转换表!B13=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B13=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="C12" s="38" t="str">
+        <v>~S2&amp;</v>
+      </c>
+      <c r="C12" s="35" t="str">
         <f>IF(状态转换表!C13=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C13=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="D12" s="39" t="str">
+        <v>S1&amp;</v>
+      </c>
+      <c r="D12" s="36" t="str">
         <f>IF(状态转换表!D13=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D13=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="E12" s="40" t="str">
+        <v>~S0&amp;</v>
+      </c>
+      <c r="E12" s="37" t="str">
         <f>IF(状态转换表!F13&lt;&gt;"",IF(状态转换表!F13=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F13=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F12" s="38" t="str">
+      <c r="F12" s="35" t="str">
         <f>IF(状态转换表!G13&lt;&gt;"",IF(状态转换表!G13=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G13=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G12" s="38" t="str">
+      <c r="G12" s="35" t="str">
         <f>IF(状态转换表!H13&lt;&gt;"",IF(状态转换表!H13=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H13=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H12" s="38" t="str">
+      <c r="H12" s="35" t="str">
         <f>IF(状态转换表!I13&lt;&gt;"",IF(状态转换表!I13=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I13=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I12" s="38" t="str">
+      <c r="I12" s="35" t="str">
         <f>IF(状态转换表!J13&lt;&gt;"",IF(状态转换表!J13=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J13=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J12" s="38" t="str">
+      <c r="J12" s="35" t="str">
         <f>IF(状态转换表!K13&lt;&gt;"",IF(状态转换表!K13=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K13=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K12" s="38" t="str">
+      <c r="K12" s="35" t="str">
         <f>IF(状态转换表!L13&lt;&gt;"",IF(状态转换表!L13=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L13=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L12" s="49" t="str">
+      <c r="L12" s="46" t="str">
         <f>IF(状态转换表!M13&lt;&gt;"",IF(状态转换表!M13=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M13=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M12" s="48" t="str">
+      <c r="M12" s="45" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;~S2&amp;S1&amp;~S0</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(状态转换表!O13=1,$M12&amp;"+","")</f>
@@ -3589,65 +3666,65 @@
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(状态转换表!Q13=1,$M12&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;S1&amp;~S0+</v>
       </c>
       <c r="Q12" s="2" t="str">
         <f>IF(状态转换表!R13=1,$M12&amp;"+","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="str">
+        <v>~S3&amp;~S2&amp;S1&amp;~S0+</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="31" t="str">
         <f>IF(状态转换表!A14=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A14=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="B13" s="38" t="str">
+        <v>~S3&amp;</v>
+      </c>
+      <c r="B13" s="35" t="str">
         <f>IF(状态转换表!B14=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B14=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="C13" s="38" t="str">
+        <v>~S2&amp;</v>
+      </c>
+      <c r="C13" s="35" t="str">
         <f>IF(状态转换表!C14=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C14=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="D13" s="39" t="str">
+        <v>S1&amp;</v>
+      </c>
+      <c r="D13" s="36" t="str">
         <f>IF(状态转换表!D14=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D14=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="E13" s="40" t="str">
+        <v>S0&amp;</v>
+      </c>
+      <c r="E13" s="37" t="str">
         <f>IF(状态转换表!F14&lt;&gt;"",IF(状态转换表!F14=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F14=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F13" s="38" t="str">
+      <c r="F13" s="35" t="str">
         <f>IF(状态转换表!G14&lt;&gt;"",IF(状态转换表!G14=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G14=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G13" s="38" t="str">
+      <c r="G13" s="35" t="str">
         <f>IF(状态转换表!H14&lt;&gt;"",IF(状态转换表!H14=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H14=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H13" s="38" t="str">
+      <c r="H13" s="35" t="str">
         <f>IF(状态转换表!I14&lt;&gt;"",IF(状态转换表!I14=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I14=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I13" s="38" t="str">
+      <c r="I13" s="35" t="str">
         <f>IF(状态转换表!J14&lt;&gt;"",IF(状态转换表!J14=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J14=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J13" s="38" t="str">
+      <c r="J13" s="35" t="str">
         <f>IF(状态转换表!K14&lt;&gt;"",IF(状态转换表!K14=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K14=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K13" s="38" t="str">
+      <c r="K13" s="35" t="str">
         <f>IF(状态转换表!L14&lt;&gt;"",IF(状态转换表!L14=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L14=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L13" s="49" t="str">
+      <c r="L13" s="46" t="str">
         <f>IF(状态转换表!M14&lt;&gt;"",IF(状态转换表!M14=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M14=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M13" s="48" t="str">
+      <c r="M13" s="45" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;~S2&amp;S1&amp;S0</v>
       </c>
       <c r="N13" s="2" t="str">
         <f>IF(状态转换表!O14=1,$M13&amp;"+","")</f>
@@ -3655,7 +3732,7 @@
       </c>
       <c r="O13" s="2" t="str">
         <f>IF(状态转换表!P14=1,$M13&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;S1&amp;S0+</v>
       </c>
       <c r="P13" s="2" t="str">
         <f>IF(状态转换表!Q14=1,$M13&amp;"+","")</f>
@@ -3666,58 +3743,58 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="str">
+    <row r="14" spans="1:17">
+      <c r="A14" s="31" t="str">
         <f>IF(状态转换表!A15=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A15=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="B14" s="38" t="str">
+        <v>~S3&amp;</v>
+      </c>
+      <c r="B14" s="35" t="str">
         <f>IF(状态转换表!B15=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B15=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="C14" s="38" t="str">
+        <v>S2&amp;</v>
+      </c>
+      <c r="C14" s="35" t="str">
         <f>IF(状态转换表!C15=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C15=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="D14" s="39" t="str">
+        <v>~S1&amp;</v>
+      </c>
+      <c r="D14" s="36" t="str">
         <f>IF(状态转换表!D15=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D15=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="E14" s="40" t="str">
+        <v>~S0&amp;</v>
+      </c>
+      <c r="E14" s="37" t="str">
         <f>IF(状态转换表!F15&lt;&gt;"",IF(状态转换表!F15=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F15=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F14" s="38" t="str">
+      <c r="F14" s="35" t="str">
         <f>IF(状态转换表!G15&lt;&gt;"",IF(状态转换表!G15=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G15=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G14" s="38" t="str">
+      <c r="G14" s="35" t="str">
         <f>IF(状态转换表!H15&lt;&gt;"",IF(状态转换表!H15=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H15=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H14" s="38" t="str">
+      <c r="H14" s="35" t="str">
         <f>IF(状态转换表!I15&lt;&gt;"",IF(状态转换表!I15=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I15=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I14" s="38" t="str">
+      <c r="I14" s="35" t="str">
         <f>IF(状态转换表!J15&lt;&gt;"",IF(状态转换表!J15=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J15=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J14" s="38" t="str">
+      <c r="J14" s="35" t="str">
         <f>IF(状态转换表!K15&lt;&gt;"",IF(状态转换表!K15=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K15=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K14" s="38" t="str">
+      <c r="K14" s="35" t="str">
         <f>IF(状态转换表!L15&lt;&gt;"",IF(状态转换表!L15=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L15=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L14" s="49" t="str">
+      <c r="L14" s="46" t="str">
         <f>IF(状态转换表!M15&lt;&gt;"",IF(状态转换表!M15=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M15=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M14" s="48" t="str">
+      <c r="M14" s="45" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;S2&amp;~S1&amp;~S0</v>
       </c>
       <c r="N14" s="2" t="str">
         <f>IF(状态转换表!O15=1,$M14&amp;"+","")</f>
@@ -3736,58 +3813,58 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="str">
+    <row r="15" spans="1:17">
+      <c r="A15" s="31" t="str">
         <f>IF(状态转换表!A16=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A16=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="B15" s="38" t="str">
+        <v>~S3&amp;</v>
+      </c>
+      <c r="B15" s="35" t="str">
         <f>IF(状态转换表!B16=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B16=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="C15" s="38" t="str">
+        <v>S2&amp;</v>
+      </c>
+      <c r="C15" s="35" t="str">
         <f>IF(状态转换表!C16=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C16=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="D15" s="39" t="str">
+        <v>~S1&amp;</v>
+      </c>
+      <c r="D15" s="36" t="str">
         <f>IF(状态转换表!D16=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D16=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="E15" s="40" t="str">
+        <v>S0&amp;</v>
+      </c>
+      <c r="E15" s="37" t="str">
         <f>IF(状态转换表!F16&lt;&gt;"",IF(状态转换表!F16=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F16=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F15" s="38" t="str">
+      <c r="F15" s="35" t="str">
         <f>IF(状态转换表!G16&lt;&gt;"",IF(状态转换表!G16=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G16=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G15" s="38" t="str">
+      <c r="G15" s="35" t="str">
         <f>IF(状态转换表!H16&lt;&gt;"",IF(状态转换表!H16=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H16=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H15" s="38" t="str">
+      <c r="H15" s="35" t="str">
         <f>IF(状态转换表!I16&lt;&gt;"",IF(状态转换表!I16=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I16=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I15" s="38" t="str">
+      <c r="I15" s="35" t="str">
         <f>IF(状态转换表!J16&lt;&gt;"",IF(状态转换表!J16=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J16=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J15" s="38" t="str">
+      <c r="J15" s="35" t="str">
         <f>IF(状态转换表!K16&lt;&gt;"",IF(状态转换表!K16=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K16=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K15" s="38" t="str">
+      <c r="K15" s="35" t="str">
         <f>IF(状态转换表!L16&lt;&gt;"",IF(状态转换表!L16=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L16=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L15" s="49" t="str">
+      <c r="L15" s="46" t="str">
         <f>IF(状态转换表!M16&lt;&gt;"",IF(状态转换表!M16=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M16=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M15" s="48" t="str">
+      <c r="M15" s="45" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;S2&amp;~S1&amp;S0</v>
       </c>
       <c r="N15" s="2" t="str">
         <f>IF(状态转换表!O16=1,$M15&amp;"+","")</f>
@@ -3795,69 +3872,69 @@
       </c>
       <c r="O15" s="2" t="str">
         <f>IF(状态转换表!P16=1,$M15&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;S2&amp;~S1&amp;S0+</v>
       </c>
       <c r="P15" s="2" t="str">
         <f>IF(状态转换表!Q16=1,$M15&amp;"+","")</f>
-        <v/>
+        <v>~S3&amp;S2&amp;~S1&amp;S0+</v>
       </c>
       <c r="Q15" s="2" t="str">
         <f>IF(状态转换表!R16=1,$M15&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="str">
+    <row r="16" spans="1:17">
+      <c r="A16" s="31" t="str">
         <f>IF(状态转换表!A17=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A17=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="B16" s="38" t="str">
+        <v>~S3&amp;</v>
+      </c>
+      <c r="B16" s="35" t="str">
         <f>IF(状态转换表!B17=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B17=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="C16" s="38" t="str">
+        <v>S2&amp;</v>
+      </c>
+      <c r="C16" s="35" t="str">
         <f>IF(状态转换表!C17=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C17=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="D16" s="39" t="str">
+        <v>S1&amp;</v>
+      </c>
+      <c r="D16" s="36" t="str">
         <f>IF(状态转换表!D17=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D17=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="E16" s="40" t="str">
+        <v>~S0&amp;</v>
+      </c>
+      <c r="E16" s="37" t="str">
         <f>IF(状态转换表!F17&lt;&gt;"",IF(状态转换表!F17=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F17=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F16" s="38" t="str">
+      <c r="F16" s="35" t="str">
         <f>IF(状态转换表!G17&lt;&gt;"",IF(状态转换表!G17=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G17=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G16" s="38" t="str">
+      <c r="G16" s="35" t="str">
         <f>IF(状态转换表!H17&lt;&gt;"",IF(状态转换表!H17=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H17=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H16" s="38" t="str">
+      <c r="H16" s="35" t="str">
         <f>IF(状态转换表!I17&lt;&gt;"",IF(状态转换表!I17=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I17=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I16" s="38" t="str">
+      <c r="I16" s="35" t="str">
         <f>IF(状态转换表!J17&lt;&gt;"",IF(状态转换表!J17=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J17=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J16" s="38" t="str">
+      <c r="J16" s="35" t="str">
         <f>IF(状态转换表!K17&lt;&gt;"",IF(状态转换表!K17=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K17=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K16" s="38" t="str">
+      <c r="K16" s="35" t="str">
         <f>IF(状态转换表!L17&lt;&gt;"",IF(状态转换表!L17=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L17=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L16" s="49" t="str">
+      <c r="L16" s="46" t="str">
         <f>IF(状态转换表!M17&lt;&gt;"",IF(状态转换表!M17=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M17=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M16" s="48" t="str">
+      <c r="M16" s="45" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S3&amp;S2&amp;S1&amp;~S0</v>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(状态转换表!O17=1,$M16&amp;"+","")</f>
@@ -3876,58 +3953,58 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="str">
+    <row r="17" spans="1:17">
+      <c r="A17" s="31" t="str">
         <f>IF(状态转换表!A18=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A18=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="B17" s="38" t="str">
+        <v>S3&amp;</v>
+      </c>
+      <c r="B17" s="35" t="str">
         <f>IF(状态转换表!B18=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B18=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="C17" s="38" t="str">
+        <v>~S2&amp;</v>
+      </c>
+      <c r="C17" s="35" t="str">
         <f>IF(状态转换表!C18=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C18=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="D17" s="39" t="str">
+        <v>~S1&amp;</v>
+      </c>
+      <c r="D17" s="36" t="str">
         <f>IF(状态转换表!D18=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D18=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="E17" s="40" t="str">
+        <v>S0&amp;</v>
+      </c>
+      <c r="E17" s="37" t="str">
         <f>IF(状态转换表!F18&lt;&gt;"",IF(状态转换表!F18=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F18=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F17" s="38" t="str">
+      <c r="F17" s="35" t="str">
         <f>IF(状态转换表!G18&lt;&gt;"",IF(状态转换表!G18=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G18=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G17" s="38" t="str">
+      <c r="G17" s="35" t="str">
         <f>IF(状态转换表!H18&lt;&gt;"",IF(状态转换表!H18=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H18=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H17" s="38" t="str">
+      <c r="H17" s="35" t="str">
         <f>IF(状态转换表!I18&lt;&gt;"",IF(状态转换表!I18=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I18=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I17" s="38" t="str">
+      <c r="I17" s="35" t="str">
         <f>IF(状态转换表!J18&lt;&gt;"",IF(状态转换表!J18=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J18=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J17" s="38" t="str">
+      <c r="J17" s="35" t="str">
         <f>IF(状态转换表!K18&lt;&gt;"",IF(状态转换表!K18=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K18=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K17" s="38" t="str">
+      <c r="K17" s="35" t="str">
         <f>IF(状态转换表!L18&lt;&gt;"",IF(状态转换表!L18=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L18=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L17" s="49" t="str">
+      <c r="L17" s="46" t="str">
         <f>IF(状态转换表!M18&lt;&gt;"",IF(状态转换表!M18=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M18=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M17" s="48" t="str">
+      <c r="M17" s="45" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>S3&amp;~S2&amp;~S1&amp;S0</v>
       </c>
       <c r="N17" s="2" t="str">
         <f>IF(状态转换表!O18=1,$M17&amp;"+","")</f>
@@ -3946,58 +4023,58 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="str">
+    <row r="18" spans="1:17">
+      <c r="A18" s="31" t="str">
         <f>IF(状态转换表!A19=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A19=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="B18" s="38" t="str">
+        <v>S3&amp;</v>
+      </c>
+      <c r="B18" s="35" t="str">
         <f>IF(状态转换表!B19=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B19=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="C18" s="38" t="str">
+        <v>~S2&amp;</v>
+      </c>
+      <c r="C18" s="35" t="str">
         <f>IF(状态转换表!C19=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C19=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="D18" s="39" t="str">
+        <v>S1&amp;</v>
+      </c>
+      <c r="D18" s="36" t="str">
         <f>IF(状态转换表!D19=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D19=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="E18" s="40" t="str">
+        <v>~S0&amp;</v>
+      </c>
+      <c r="E18" s="37" t="str">
         <f>IF(状态转换表!F19&lt;&gt;"",IF(状态转换表!F19=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F19=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F18" s="38" t="str">
+      <c r="F18" s="35" t="str">
         <f>IF(状态转换表!G19&lt;&gt;"",IF(状态转换表!G19=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G19=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G18" s="38" t="str">
+      <c r="G18" s="35" t="str">
         <f>IF(状态转换表!H19&lt;&gt;"",IF(状态转换表!H19=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H19=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H18" s="38" t="str">
+      <c r="H18" s="35" t="str">
         <f>IF(状态转换表!I19&lt;&gt;"",IF(状态转换表!I19=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I19=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I18" s="38" t="str">
+      <c r="I18" s="35" t="str">
         <f>IF(状态转换表!J19&lt;&gt;"",IF(状态转换表!J19=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J19=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J18" s="38" t="str">
+      <c r="J18" s="35" t="str">
         <f>IF(状态转换表!K19&lt;&gt;"",IF(状态转换表!K19=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K19=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K18" s="38" t="str">
+      <c r="K18" s="35" t="str">
         <f>IF(状态转换表!L19&lt;&gt;"",IF(状态转换表!L19=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L19=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L18" s="49" t="str">
+      <c r="L18" s="46" t="str">
         <f>IF(状态转换表!M19&lt;&gt;"",IF(状态转换表!M19=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M19=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M18" s="48" t="str">
+      <c r="M18" s="45" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>S3&amp;~S2&amp;S1&amp;~S0</v>
       </c>
       <c r="N18" s="2" t="str">
         <f>IF(状态转换表!O19=1,$M18&amp;"+","")</f>
@@ -4016,66 +4093,66 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="str">
+    <row r="19" spans="1:17">
+      <c r="A19" s="31" t="str">
         <f>IF(状态转换表!A20=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A20=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="B19" s="38" t="str">
+        <v>S3&amp;</v>
+      </c>
+      <c r="B19" s="35" t="str">
         <f>IF(状态转换表!B20=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B20=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="C19" s="38" t="str">
+        <v>S2&amp;</v>
+      </c>
+      <c r="C19" s="35" t="str">
         <f>IF(状态转换表!C20=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C20=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="D19" s="39" t="str">
+        <v>~S1&amp;</v>
+      </c>
+      <c r="D19" s="36" t="str">
         <f>IF(状态转换表!D20=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D20=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="E19" s="40" t="str">
+        <v>S0&amp;</v>
+      </c>
+      <c r="E19" s="37" t="str">
         <f>IF(状态转换表!F20&lt;&gt;"",IF(状态转换表!F20=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F20=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F19" s="38" t="str">
+      <c r="F19" s="35" t="str">
         <f>IF(状态转换表!G20&lt;&gt;"",IF(状态转换表!G20=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G20=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G19" s="38" t="str">
+      <c r="G19" s="35" t="str">
         <f>IF(状态转换表!H20&lt;&gt;"",IF(状态转换表!H20=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H20=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H19" s="38" t="str">
+      <c r="H19" s="35" t="str">
         <f>IF(状态转换表!I20&lt;&gt;"",IF(状态转换表!I20=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I20=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I19" s="38" t="str">
+      <c r="I19" s="35" t="str">
         <f>IF(状态转换表!J20&lt;&gt;"",IF(状态转换表!J20=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J20=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J19" s="38" t="str">
+      <c r="J19" s="35" t="str">
         <f>IF(状态转换表!K20&lt;&gt;"",IF(状态转换表!K20=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K20=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K19" s="38" t="str">
+      <c r="K19" s="35" t="str">
         <f>IF(状态转换表!L20&lt;&gt;"",IF(状态转换表!L20=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L20=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L19" s="49" t="str">
+      <c r="L19" s="46" t="str">
         <f>IF(状态转换表!M20&lt;&gt;"",IF(状态转换表!M20=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M20=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M19" s="48" t="str">
+      <c r="M19" s="45" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>S3&amp;S2&amp;~S1&amp;S0</v>
       </c>
       <c r="N19" s="2" t="str">
         <f>IF(状态转换表!O20=1,$M19&amp;"+","")</f>
-        <v/>
+        <v>S3&amp;S2&amp;~S1&amp;S0+</v>
       </c>
       <c r="O19" s="2" t="str">
         <f>IF(状态转换表!P20=1,$M19&amp;"+","")</f>
-        <v/>
+        <v>S3&amp;S2&amp;~S1&amp;S0+</v>
       </c>
       <c r="P19" s="2" t="str">
         <f>IF(状态转换表!Q20=1,$M19&amp;"+","")</f>
@@ -4083,69 +4160,69 @@
       </c>
       <c r="Q19" s="2" t="str">
         <f>IF(状态转换表!R20=1,$M19&amp;"+","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="str">
+        <v>S3&amp;S2&amp;~S1&amp;S0+</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="31" t="str">
         <f>IF(状态转换表!A21=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A21=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="B20" s="38" t="str">
+        <v>S3&amp;</v>
+      </c>
+      <c r="B20" s="35" t="str">
         <f>IF(状态转换表!B21=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B21=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="C20" s="38" t="str">
+        <v>~S2&amp;</v>
+      </c>
+      <c r="C20" s="35" t="str">
         <f>IF(状态转换表!C21=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C21=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="D20" s="39" t="str">
+        <v>S1&amp;</v>
+      </c>
+      <c r="D20" s="36" t="str">
         <f>IF(状态转换表!D21=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D21=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="E20" s="40" t="str">
+        <v>S0&amp;</v>
+      </c>
+      <c r="E20" s="37" t="str">
         <f>IF(状态转换表!F21&lt;&gt;"",IF(状态转换表!F21=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F21=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F20" s="38" t="str">
+      <c r="F20" s="35" t="str">
         <f>IF(状态转换表!G21&lt;&gt;"",IF(状态转换表!G21=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G21=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G20" s="38" t="str">
+      <c r="G20" s="35" t="str">
         <f>IF(状态转换表!H21&lt;&gt;"",IF(状态转换表!H21=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H21=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H20" s="38" t="str">
+      <c r="H20" s="35" t="str">
         <f>IF(状态转换表!I21&lt;&gt;"",IF(状态转换表!I21=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I21=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I20" s="38" t="str">
+      <c r="I20" s="35" t="str">
         <f>IF(状态转换表!J21&lt;&gt;"",IF(状态转换表!J21=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J21=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J20" s="38" t="str">
+      <c r="J20" s="35" t="str">
         <f>IF(状态转换表!K21&lt;&gt;"",IF(状态转换表!K21=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K21=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K20" s="38" t="str">
+      <c r="K20" s="35" t="str">
         <f>IF(状态转换表!L21&lt;&gt;"",IF(状态转换表!L21=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L21=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L20" s="49" t="str">
+      <c r="L20" s="46" t="str">
         <f>IF(状态转换表!M21&lt;&gt;"",IF(状态转换表!M21=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M21=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M20" s="48" t="str">
+      <c r="M20" s="45" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>S3&amp;~S2&amp;S1&amp;S0</v>
       </c>
       <c r="N20" s="2" t="str">
         <f>IF(状态转换表!O21=1,$M20&amp;"+","")</f>
-        <v/>
+        <v>S3&amp;~S2&amp;S1&amp;S0+</v>
       </c>
       <c r="O20" s="2" t="str">
         <f>IF(状态转换表!P21=1,$M20&amp;"+","")</f>
-        <v/>
+        <v>S3&amp;~S2&amp;S1&amp;S0+</v>
       </c>
       <c r="P20" s="2" t="str">
         <f>IF(状态转换表!Q21=1,$M20&amp;"+","")</f>
@@ -4156,58 +4233,58 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="str">
+    <row r="21" spans="1:17" hidden="1">
+      <c r="A21" s="31" t="str">
         <f>IF(状态转换表!A22=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A22=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="B21" s="38" t="str">
+        <v>S3&amp;</v>
+      </c>
+      <c r="B21" s="35" t="str">
         <f>IF(状态转换表!B22=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B22=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="C21" s="38" t="str">
+        <v>S2&amp;</v>
+      </c>
+      <c r="C21" s="35" t="str">
         <f>IF(状态转换表!C22=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C22=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="D21" s="39" t="str">
+        <v>~S1&amp;</v>
+      </c>
+      <c r="D21" s="36" t="str">
         <f>IF(状态转换表!D22=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D22=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
-      </c>
-      <c r="E21" s="40" t="str">
+        <v>~S0&amp;</v>
+      </c>
+      <c r="E21" s="37" t="str">
         <f>IF(状态转换表!F22&lt;&gt;"",IF(状态转换表!F22=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F22=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F21" s="38" t="str">
+      <c r="F21" s="35" t="str">
         <f>IF(状态转换表!G22&lt;&gt;"",IF(状态转换表!G22=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G22=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G21" s="38" t="str">
+      <c r="G21" s="35" t="str">
         <f>IF(状态转换表!H22&lt;&gt;"",IF(状态转换表!H22=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H22=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H21" s="38" t="str">
+      <c r="H21" s="35" t="str">
         <f>IF(状态转换表!I22&lt;&gt;"",IF(状态转换表!I22=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I22=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I21" s="38" t="str">
+      <c r="I21" s="35" t="str">
         <f>IF(状态转换表!J22&lt;&gt;"",IF(状态转换表!J22=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J22=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J21" s="38" t="str">
+      <c r="J21" s="35" t="str">
         <f>IF(状态转换表!K22&lt;&gt;"",IF(状态转换表!K22=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K22=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K21" s="38" t="str">
+      <c r="K21" s="35" t="str">
         <f>IF(状态转换表!L22&lt;&gt;"",IF(状态转换表!L22=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L22=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L21" s="49" t="str">
+      <c r="L21" s="46" t="str">
         <f>IF(状态转换表!M22&lt;&gt;"",IF(状态转换表!M22=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M22=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M21" s="48" t="str">
+      <c r="M21" s="45" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>S3&amp;S2&amp;~S1&amp;~S0</v>
       </c>
       <c r="N21" s="2" t="str">
         <f>IF(状态转换表!O22=1,$M21&amp;"+","")</f>
@@ -4226,56 +4303,56 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="str">
+    <row r="22" spans="1:17" hidden="1">
+      <c r="A22" s="31" t="str">
         <f>IF(状态转换表!A23=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A23=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B22" s="38" t="str">
+      <c r="B22" s="35" t="str">
         <f>IF(状态转换表!B23=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B23=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C22" s="38" t="str">
+      <c r="C22" s="35" t="str">
         <f>IF(状态转换表!C23=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C23=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D22" s="39" t="str">
+      <c r="D22" s="36" t="str">
         <f>IF(状态转换表!D23=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D23=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E22" s="40" t="str">
+      <c r="E22" s="37" t="str">
         <f>IF(状态转换表!F23&lt;&gt;"",IF(状态转换表!F23=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F23=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F22" s="38" t="str">
+      <c r="F22" s="35" t="str">
         <f>IF(状态转换表!G23&lt;&gt;"",IF(状态转换表!G23=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G23=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G22" s="38" t="str">
+      <c r="G22" s="35" t="str">
         <f>IF(状态转换表!H23&lt;&gt;"",IF(状态转换表!H23=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H23=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H22" s="38" t="str">
+      <c r="H22" s="35" t="str">
         <f>IF(状态转换表!I23&lt;&gt;"",IF(状态转换表!I23=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I23=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I22" s="38" t="str">
+      <c r="I22" s="35" t="str">
         <f>IF(状态转换表!J23&lt;&gt;"",IF(状态转换表!J23=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J23=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J22" s="38" t="str">
+      <c r="J22" s="35" t="str">
         <f>IF(状态转换表!K23&lt;&gt;"",IF(状态转换表!K23=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K23=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K22" s="38" t="str">
+      <c r="K22" s="35" t="str">
         <f>IF(状态转换表!L23&lt;&gt;"",IF(状态转换表!L23=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L23=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L22" s="49" t="str">
+      <c r="L22" s="46" t="str">
         <f>IF(状态转换表!M23&lt;&gt;"",IF(状态转换表!M23=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M23=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M22" s="48" t="str">
+      <c r="M22" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4296,56 +4373,56 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="str">
+    <row r="23" spans="1:17" hidden="1">
+      <c r="A23" s="31" t="str">
         <f>IF(状态转换表!A24=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A24=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B23" s="38" t="str">
+      <c r="B23" s="35" t="str">
         <f>IF(状态转换表!B24=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B24=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C23" s="38" t="str">
+      <c r="C23" s="35" t="str">
         <f>IF(状态转换表!C24=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C24=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D23" s="39" t="str">
+      <c r="D23" s="36" t="str">
         <f>IF(状态转换表!D24=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D24=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E23" s="40" t="str">
+      <c r="E23" s="37" t="str">
         <f>IF(状态转换表!F24&lt;&gt;"",IF(状态转换表!F24=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F24=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F23" s="38" t="str">
+      <c r="F23" s="35" t="str">
         <f>IF(状态转换表!G24&lt;&gt;"",IF(状态转换表!G24=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G24=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G23" s="38" t="str">
+      <c r="G23" s="35" t="str">
         <f>IF(状态转换表!H24&lt;&gt;"",IF(状态转换表!H24=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H24=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H23" s="38" t="str">
+      <c r="H23" s="35" t="str">
         <f>IF(状态转换表!I24&lt;&gt;"",IF(状态转换表!I24=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I24=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I23" s="38" t="str">
+      <c r="I23" s="35" t="str">
         <f>IF(状态转换表!J24&lt;&gt;"",IF(状态转换表!J24=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J24=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J23" s="38" t="str">
+      <c r="J23" s="35" t="str">
         <f>IF(状态转换表!K24&lt;&gt;"",IF(状态转换表!K24=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K24=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K23" s="38" t="str">
+      <c r="K23" s="35" t="str">
         <f>IF(状态转换表!L24&lt;&gt;"",IF(状态转换表!L24=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L24=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L23" s="49" t="str">
+      <c r="L23" s="46" t="str">
         <f>IF(状态转换表!M24&lt;&gt;"",IF(状态转换表!M24=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M24=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M23" s="48" t="str">
+      <c r="M23" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4366,56 +4443,56 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="str">
+    <row r="24" spans="1:17" hidden="1">
+      <c r="A24" s="31" t="str">
         <f>IF(状态转换表!A25=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A25=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B24" s="38" t="str">
+      <c r="B24" s="35" t="str">
         <f>IF(状态转换表!B25=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B25=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C24" s="38" t="str">
+      <c r="C24" s="35" t="str">
         <f>IF(状态转换表!C25=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C25=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D24" s="39" t="str">
+      <c r="D24" s="36" t="str">
         <f>IF(状态转换表!D25=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D25=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E24" s="40" t="str">
+      <c r="E24" s="37" t="str">
         <f>IF(状态转换表!F25&lt;&gt;"",IF(状态转换表!F25=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F25=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F24" s="38" t="str">
+      <c r="F24" s="35" t="str">
         <f>IF(状态转换表!G25&lt;&gt;"",IF(状态转换表!G25=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G25=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G24" s="38" t="str">
+      <c r="G24" s="35" t="str">
         <f>IF(状态转换表!H25&lt;&gt;"",IF(状态转换表!H25=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H25=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H24" s="38" t="str">
+      <c r="H24" s="35" t="str">
         <f>IF(状态转换表!I25&lt;&gt;"",IF(状态转换表!I25=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I25=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I24" s="38" t="str">
+      <c r="I24" s="35" t="str">
         <f>IF(状态转换表!J25&lt;&gt;"",IF(状态转换表!J25=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J25=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J24" s="38" t="str">
+      <c r="J24" s="35" t="str">
         <f>IF(状态转换表!K25&lt;&gt;"",IF(状态转换表!K25=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K25=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K24" s="38" t="str">
+      <c r="K24" s="35" t="str">
         <f>IF(状态转换表!L25&lt;&gt;"",IF(状态转换表!L25=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L25=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L24" s="49" t="str">
+      <c r="L24" s="46" t="str">
         <f>IF(状态转换表!M25&lt;&gt;"",IF(状态转换表!M25=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M25=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M24" s="48" t="str">
+      <c r="M24" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4436,56 +4513,56 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="34" t="str">
+    <row r="25" spans="1:17" hidden="1">
+      <c r="A25" s="31" t="str">
         <f>IF(状态转换表!A26=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A26=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B25" s="38" t="str">
+      <c r="B25" s="35" t="str">
         <f>IF(状态转换表!B26=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B26=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C25" s="38" t="str">
+      <c r="C25" s="35" t="str">
         <f>IF(状态转换表!C26=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C26=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D25" s="39" t="str">
+      <c r="D25" s="36" t="str">
         <f>IF(状态转换表!D26=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D26=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E25" s="40" t="str">
+      <c r="E25" s="37" t="str">
         <f>IF(状态转换表!F26&lt;&gt;"",IF(状态转换表!F26=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F26=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F25" s="38" t="str">
+      <c r="F25" s="35" t="str">
         <f>IF(状态转换表!G26&lt;&gt;"",IF(状态转换表!G26=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G26=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G25" s="38" t="str">
+      <c r="G25" s="35" t="str">
         <f>IF(状态转换表!H26&lt;&gt;"",IF(状态转换表!H26=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H26=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H25" s="38" t="str">
+      <c r="H25" s="35" t="str">
         <f>IF(状态转换表!I26&lt;&gt;"",IF(状态转换表!I26=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I26=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I25" s="38" t="str">
+      <c r="I25" s="35" t="str">
         <f>IF(状态转换表!J26&lt;&gt;"",IF(状态转换表!J26=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J26=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J25" s="38" t="str">
+      <c r="J25" s="35" t="str">
         <f>IF(状态转换表!K26&lt;&gt;"",IF(状态转换表!K26=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K26=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K25" s="38" t="str">
+      <c r="K25" s="35" t="str">
         <f>IF(状态转换表!L26&lt;&gt;"",IF(状态转换表!L26=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L26=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L25" s="49" t="str">
+      <c r="L25" s="46" t="str">
         <f>IF(状态转换表!M26&lt;&gt;"",IF(状态转换表!M26=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M26=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M25" s="48" t="str">
+      <c r="M25" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4506,56 +4583,56 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="str">
+    <row r="26" spans="1:17" hidden="1">
+      <c r="A26" s="31" t="str">
         <f>IF(状态转换表!A27=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A27=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B26" s="38" t="str">
+      <c r="B26" s="35" t="str">
         <f>IF(状态转换表!B27=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B27=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C26" s="38" t="str">
+      <c r="C26" s="35" t="str">
         <f>IF(状态转换表!C27=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C27=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D26" s="39" t="str">
+      <c r="D26" s="36" t="str">
         <f>IF(状态转换表!D27=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D27=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E26" s="40" t="str">
+      <c r="E26" s="37" t="str">
         <f>IF(状态转换表!F27&lt;&gt;"",IF(状态转换表!F27=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F27=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F26" s="38" t="str">
+      <c r="F26" s="35" t="str">
         <f>IF(状态转换表!G27&lt;&gt;"",IF(状态转换表!G27=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G27=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G26" s="38" t="str">
+      <c r="G26" s="35" t="str">
         <f>IF(状态转换表!H27&lt;&gt;"",IF(状态转换表!H27=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H27=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H26" s="38" t="str">
+      <c r="H26" s="35" t="str">
         <f>IF(状态转换表!I27&lt;&gt;"",IF(状态转换表!I27=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I27=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I26" s="38" t="str">
+      <c r="I26" s="35" t="str">
         <f>IF(状态转换表!J27&lt;&gt;"",IF(状态转换表!J27=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J27=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J26" s="38" t="str">
+      <c r="J26" s="35" t="str">
         <f>IF(状态转换表!K27&lt;&gt;"",IF(状态转换表!K27=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K27=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K26" s="38" t="str">
+      <c r="K26" s="35" t="str">
         <f>IF(状态转换表!L27&lt;&gt;"",IF(状态转换表!L27=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L27=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L26" s="49" t="str">
+      <c r="L26" s="46" t="str">
         <f>IF(状态转换表!M27&lt;&gt;"",IF(状态转换表!M27=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M27=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M26" s="48" t="str">
+      <c r="M26" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4576,56 +4653,56 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="str">
+    <row r="27" spans="1:17" hidden="1">
+      <c r="A27" s="31" t="str">
         <f>IF(状态转换表!A28=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A28=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B27" s="38" t="str">
+      <c r="B27" s="35" t="str">
         <f>IF(状态转换表!B28=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B28=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C27" s="38" t="str">
+      <c r="C27" s="35" t="str">
         <f>IF(状态转换表!C28=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C28=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D27" s="39" t="str">
+      <c r="D27" s="36" t="str">
         <f>IF(状态转换表!D28=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D28=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E27" s="40" t="str">
+      <c r="E27" s="37" t="str">
         <f>IF(状态转换表!F28&lt;&gt;"",IF(状态转换表!F28=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F28=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F27" s="38" t="str">
+      <c r="F27" s="35" t="str">
         <f>IF(状态转换表!G28&lt;&gt;"",IF(状态转换表!G28=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G28=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G27" s="38" t="str">
+      <c r="G27" s="35" t="str">
         <f>IF(状态转换表!H28&lt;&gt;"",IF(状态转换表!H28=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H28=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H27" s="38" t="str">
+      <c r="H27" s="35" t="str">
         <f>IF(状态转换表!I28&lt;&gt;"",IF(状态转换表!I28=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I28=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I27" s="38" t="str">
+      <c r="I27" s="35" t="str">
         <f>IF(状态转换表!J28&lt;&gt;"",IF(状态转换表!J28=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J28=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J27" s="38" t="str">
+      <c r="J27" s="35" t="str">
         <f>IF(状态转换表!K28&lt;&gt;"",IF(状态转换表!K28=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K28=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K27" s="38" t="str">
+      <c r="K27" s="35" t="str">
         <f>IF(状态转换表!L28&lt;&gt;"",IF(状态转换表!L28=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L28=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L27" s="49" t="str">
+      <c r="L27" s="46" t="str">
         <f>IF(状态转换表!M28&lt;&gt;"",IF(状态转换表!M28=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M28=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M27" s="48" t="str">
+      <c r="M27" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4646,56 +4723,56 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="34" t="str">
+    <row r="28" spans="1:17" hidden="1">
+      <c r="A28" s="31" t="str">
         <f>IF(状态转换表!A29=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A29=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B28" s="38" t="str">
+      <c r="B28" s="35" t="str">
         <f>IF(状态转换表!B29=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B29=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C28" s="38" t="str">
+      <c r="C28" s="35" t="str">
         <f>IF(状态转换表!C29=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C29=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D28" s="39" t="str">
+      <c r="D28" s="36" t="str">
         <f>IF(状态转换表!D29=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D29=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E28" s="40" t="str">
+      <c r="E28" s="37" t="str">
         <f>IF(状态转换表!F29&lt;&gt;"",IF(状态转换表!F29=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F29=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F28" s="38" t="str">
+      <c r="F28" s="35" t="str">
         <f>IF(状态转换表!G29&lt;&gt;"",IF(状态转换表!G29=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G29=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G28" s="38" t="str">
+      <c r="G28" s="35" t="str">
         <f>IF(状态转换表!H29&lt;&gt;"",IF(状态转换表!H29=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H29=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H28" s="38" t="str">
+      <c r="H28" s="35" t="str">
         <f>IF(状态转换表!I29&lt;&gt;"",IF(状态转换表!I29=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I29=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I28" s="38" t="str">
+      <c r="I28" s="35" t="str">
         <f>IF(状态转换表!J29&lt;&gt;"",IF(状态转换表!J29=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J29=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J28" s="38" t="str">
+      <c r="J28" s="35" t="str">
         <f>IF(状态转换表!K29&lt;&gt;"",IF(状态转换表!K29=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K29=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K28" s="38" t="str">
+      <c r="K28" s="35" t="str">
         <f>IF(状态转换表!L29&lt;&gt;"",IF(状态转换表!L29=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L29=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L28" s="49" t="str">
+      <c r="L28" s="46" t="str">
         <f>IF(状态转换表!M29&lt;&gt;"",IF(状态转换表!M29=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M29=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M28" s="48" t="str">
+      <c r="M28" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4716,56 +4793,56 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="str">
+    <row r="29" spans="1:17" hidden="1">
+      <c r="A29" s="31" t="str">
         <f>IF(状态转换表!A30=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A30=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B29" s="38" t="str">
+      <c r="B29" s="35" t="str">
         <f>IF(状态转换表!B30=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B30=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C29" s="38" t="str">
+      <c r="C29" s="35" t="str">
         <f>IF(状态转换表!C30=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C30=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D29" s="39" t="str">
+      <c r="D29" s="36" t="str">
         <f>IF(状态转换表!D30=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D30=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E29" s="40" t="str">
+      <c r="E29" s="37" t="str">
         <f>IF(状态转换表!F30&lt;&gt;"",IF(状态转换表!F30=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F30=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F29" s="38" t="str">
+      <c r="F29" s="35" t="str">
         <f>IF(状态转换表!G30&lt;&gt;"",IF(状态转换表!G30=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G30=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G29" s="38" t="str">
+      <c r="G29" s="35" t="str">
         <f>IF(状态转换表!H30&lt;&gt;"",IF(状态转换表!H30=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H30=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H29" s="38" t="str">
+      <c r="H29" s="35" t="str">
         <f>IF(状态转换表!I30&lt;&gt;"",IF(状态转换表!I30=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I30=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I29" s="38" t="str">
+      <c r="I29" s="35" t="str">
         <f>IF(状态转换表!J30&lt;&gt;"",IF(状态转换表!J30=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J30=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J29" s="38" t="str">
+      <c r="J29" s="35" t="str">
         <f>IF(状态转换表!K30&lt;&gt;"",IF(状态转换表!K30=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K30=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K29" s="38" t="str">
+      <c r="K29" s="35" t="str">
         <f>IF(状态转换表!L30&lt;&gt;"",IF(状态转换表!L30=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L30=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L29" s="49" t="str">
+      <c r="L29" s="46" t="str">
         <f>IF(状态转换表!M30&lt;&gt;"",IF(状态转换表!M30=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M30=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M29" s="48" t="str">
+      <c r="M29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4786,56 +4863,56 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="34" t="str">
+    <row r="30" spans="1:17" hidden="1">
+      <c r="A30" s="31" t="str">
         <f>IF(状态转换表!A31=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A31=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="B30" s="41" t="str">
+      <c r="B30" s="38" t="str">
         <f>IF(状态转换表!B31=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B31=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="C30" s="41" t="str">
+      <c r="C30" s="38" t="str">
         <f>IF(状态转换表!C31=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C31=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="D30" s="42" t="str">
+      <c r="D30" s="39" t="str">
         <f>IF(状态转换表!D31=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D31=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
         <v/>
       </c>
-      <c r="E30" s="40" t="str">
+      <c r="E30" s="37" t="str">
         <f>IF(状态转换表!F31&lt;&gt;"",IF(状态转换表!F31=1,状态转换表!F$2&amp;"&amp;",IF(状态转换表!F31=0,"~"&amp;状态转换表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F30" s="38" t="str">
+      <c r="F30" s="35" t="str">
         <f>IF(状态转换表!G31&lt;&gt;"",IF(状态转换表!G31=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G31=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G30" s="38" t="str">
+      <c r="G30" s="35" t="str">
         <f>IF(状态转换表!H31&lt;&gt;"",IF(状态转换表!H31=1,状态转换表!H$2&amp;"&amp;",IF(状态转换表!H31=0,"~"&amp;状态转换表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H30" s="38" t="str">
+      <c r="H30" s="35" t="str">
         <f>IF(状态转换表!I31&lt;&gt;"",IF(状态转换表!I31=1,状态转换表!I$2&amp;"&amp;",IF(状态转换表!I31=0,"~"&amp;状态转换表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I30" s="38" t="str">
+      <c r="I30" s="35" t="str">
         <f>IF(状态转换表!J31&lt;&gt;"",IF(状态转换表!J31=1,状态转换表!J$2&amp;"&amp;",IF(状态转换表!J31=0,"~"&amp;状态转换表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J30" s="38" t="str">
+      <c r="J30" s="35" t="str">
         <f>IF(状态转换表!K31&lt;&gt;"",IF(状态转换表!K31=1,状态转换表!K$2&amp;"&amp;",IF(状态转换表!K31=0,"~"&amp;状态转换表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K30" s="38" t="str">
+      <c r="K30" s="35" t="str">
         <f>IF(状态转换表!L31&lt;&gt;"",IF(状态转换表!L31=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L31=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L30" s="49" t="str">
+      <c r="L30" s="46" t="str">
         <f>IF(状态转换表!M31&lt;&gt;"",IF(状态转换表!M31=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M31=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M30" s="48" t="str">
+      <c r="M30" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4856,87 +4933,87 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="68" t="s">
+    <row r="31" spans="1:17" ht="17">
+      <c r="A31" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="70"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="69"/>
       <c r="N31" s="4" t="str">
         <f>IF(LEN(N32)&gt;1,LEFT(N32,LEN(N32)-1),"")</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;BEQ+~S3&amp;~S2&amp;~S1&amp;S0&amp;BNE+~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+~S3&amp;S2&amp;S1&amp;S0+S3&amp;S2&amp;~S1&amp;S0+S3&amp;~S2&amp;S1&amp;S0</v>
       </c>
       <c r="O31" s="4" t="str">
         <f>IF(LEN(O32)&gt;1,LEFT(O32,LEN(O32)-1),"")</f>
-        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type</v>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;SW+~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+~S3&amp;~S2&amp;S1&amp;S0+~S3&amp;S2&amp;~S1&amp;S0+S3&amp;S2&amp;~S1&amp;S0+S3&amp;~S2&amp;S1&amp;S0</v>
       </c>
       <c r="P31" s="4" t="str">
         <f>IF(LEN(P32)&gt;1,LEFT(P32,LEN(P32)-1),"")</f>
-        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;LW</v>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;LW+~S3&amp;~S2&amp;~S1&amp;S0&amp;BNE+~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+~S3&amp;~S2&amp;S1&amp;~S0+~S3&amp;S2&amp;~S1&amp;S0</v>
       </c>
       <c r="Q31" s="6" t="str">
         <f>IF(LEN(Q32)&gt;1,LEFT(Q32,LEN(Q32)-1),"")</f>
-        <v>~S3&amp;~S2&amp;~S1&amp;~S0+~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="50"/>
+        <v>~S3&amp;~S2&amp;~S1&amp;~S0+~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;SW+~S3&amp;~S2&amp;~S1&amp;S0&amp;BEQ+~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+~S3&amp;~S2&amp;S1&amp;~S0+S3&amp;S2&amp;~S1&amp;S0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="17.25" hidden="1" customHeight="1">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="47"/>
       <c r="N32" s="5" t="str">
         <f>CONCATENATE(N2,N3,N4,N5,N6,N7,N8,N9,N10,N11,N12,N13,N14,N15,N16,N17,N18,N19,N20,N21,N22,N23,N24,N25,N26,N27,N28,N29,N30)</f>
-        <v/>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;BEQ+~S3&amp;~S2&amp;~S1&amp;S0&amp;BNE+~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+~S3&amp;S2&amp;S1&amp;S0+S3&amp;S2&amp;~S1&amp;S0+S3&amp;~S2&amp;S1&amp;S0+</v>
       </c>
       <c r="O32" s="5" t="str">
         <f t="shared" ref="O32:Q32" si="1">CONCATENATE(O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15,O16,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26,O27,O28,O29,O30)</f>
-        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+</v>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;SW+~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+~S3&amp;~S2&amp;S1&amp;S0+~S3&amp;S2&amp;~S1&amp;S0+S3&amp;S2&amp;~S1&amp;S0+S3&amp;~S2&amp;S1&amp;S0+</v>
       </c>
       <c r="P32" s="5" t="str">
         <f t="shared" ref="P32" si="2">CONCATENATE(P2,P3,P4,P5,P6,P7,P8,P9,P10,P11,P12,P13,P14,P15,P16,P17,P18,P19,P20,P21,P22,P23,P24,P25,P26,P27,P28,P29,P30)</f>
-        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;LW+</v>
+        <v>~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;LW+~S3&amp;~S2&amp;~S1&amp;S0&amp;BNE+~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+~S3&amp;~S2&amp;S1&amp;~S0+~S3&amp;S2&amp;~S1&amp;S0+</v>
       </c>
       <c r="Q32" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>~S3&amp;~S2&amp;~S1&amp;~S0+~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+</v>
-      </c>
-    </row>
-    <row r="35" spans="3:15" ht="15" x14ac:dyDescent="0.2">
+        <v>~S3&amp;~S2&amp;~S1&amp;~S0+~S3&amp;~S2&amp;~S1&amp;S0&amp;R_Type+~S3&amp;~S2&amp;~S1&amp;S0&amp;SW+~S3&amp;~S2&amp;~S1&amp;S0&amp;BEQ+~S3&amp;~S2&amp;~S1&amp;S0&amp;SYSCALL+~S3&amp;~S2&amp;~S1&amp;S0&amp;ADDI+~S3&amp;~S2&amp;S1&amp;~S0+S3&amp;S2&amp;~S1&amp;S0+</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" ht="17">
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="M35" s="51"/>
-    </row>
-    <row r="36" spans="3:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="C36" s="71" t="s">
+      <c r="M35" s="48"/>
+    </row>
+    <row r="36" spans="3:15" ht="17">
+      <c r="C36" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
       <c r="O36" s="7" t="s">
         <v>15</v>
       </c>
